--- a/GEN_01_ConsultorIdealista/Data/Config - Rocio.xlsx
+++ b/GEN_01_ConsultorIdealista/Data/Config - Rocio.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rocio\Documents\PDDIdealistaFinal\GEN_01_ConsultorIdealista\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43F23EA9-659A-46DD-AFC0-57E23F27F71C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9CF5ED0-86F3-4DD8-9E9D-EB58363466EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5070" yWindow="3330" windowWidth="18000" windowHeight="9360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
